--- a/Análisis financiero de Microsoft y Alphabet/Datos originales de Mircrosfot y Alphabet (extraidos de Yahoo! finanzas el 03 - 02 - 2026).xlsx
+++ b/Análisis financiero de Microsoft y Alphabet/Datos originales de Mircrosfot y Alphabet (extraidos de Yahoo! finanzas el 03 - 02 - 2026).xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="1" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Estado de Resultados de MSFT" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Balance General de MSFT" sheetId="2" r:id="rId6"/>
-    <sheet state="visible" name="Estado de Resultados de Alphabe" sheetId="3" r:id="rId7"/>
-    <sheet state="visible" name="Balance General de Alphabet" sheetId="4" r:id="rId8"/>
+    <sheet name="Estado de Resultados de MSFT" sheetId="1" r:id="rId1"/>
+    <sheet name="Balance General de MSFT" sheetId="2" r:id="rId2"/>
+    <sheet name="Estado de Resultados de GOOG" sheetId="3" r:id="rId3"/>
+    <sheet name="Balance General de GOOG" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2464,34 +2472,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;GT America&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;GT America&quot;"/>
     </font>
@@ -2501,7 +2513,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2517,58 +2529,54 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2576,7 +2584,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2766,2115 +2774,2128 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.0"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3">
-        <v>539.0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>262.0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>222.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>539</v>
+      </c>
+      <c r="C16" s="2">
+        <v>262</v>
+      </c>
+      <c r="D16" s="2">
+        <v>222</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="3">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="3">
-        <v>-238.0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>302.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="E19" s="2">
+        <v>-238</v>
+      </c>
+      <c r="F19" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="3">
-        <v>505.0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-343.0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>435.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="2">
+        <v>505</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-343</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="3">
-        <v>-142.0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-943.0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-206.0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-30.0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-101.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="2">
+        <v>-142</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-943</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-206</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3">
-        <v>142.0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>943.0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>206.0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="2">
+        <v>142</v>
+      </c>
+      <c r="C22" s="2">
+        <v>943</v>
+      </c>
+      <c r="D22" s="2">
+        <v>206</v>
+      </c>
+      <c r="E22" s="2">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="3">
-        <v>-223.0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-32.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="2">
+        <v>-223</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>16.05</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>13.7</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>11.86</v>
       </c>
-      <c r="E31" s="3">
-        <v>9.72</v>
-      </c>
-      <c r="F31" s="3">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="E31" s="2">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>15.98</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>13.64</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>11.8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>9.68</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>9.65</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:6" ht="12.75">
+      <c r="A39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:6" ht="12.75">
+      <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:6" ht="12.75">
+      <c r="A41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="3">
-        <v>539.0</v>
-      </c>
-      <c r="C41" s="3">
-        <v>262.0</v>
-      </c>
-      <c r="D41" s="3">
-        <v>222.0</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="B41" s="2">
+        <v>539</v>
+      </c>
+      <c r="C41" s="2">
+        <v>262</v>
+      </c>
+      <c r="D41" s="2">
+        <v>222</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="3">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="F41" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75">
+      <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:6" ht="12.75">
+      <c r="A43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:6" ht="12.75">
+      <c r="A44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:6" ht="12.75">
+      <c r="A45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:6" ht="12.75">
+      <c r="A46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:6" ht="12.75">
+      <c r="A47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="3">
-        <v>-438.0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-549.0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>-15.0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>334.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="C47" s="2">
+        <v>-438</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-549</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F47" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75">
+      <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="3">
-        <v>-438.0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-549.0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>-15.0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>334.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="C48" s="2">
+        <v>-438</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-549</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F48" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75">
+      <c r="A49" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:6" ht="12.75">
+      <c r="A50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75">
+      <c r="A51" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="3">
-        <v>-77.088</v>
-      </c>
-      <c r="D51" s="3">
-        <v>-99.918</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="C51" s="2">
+        <v>-77.087999999999994</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-99.918000000000006</v>
+      </c>
+      <c r="E51" s="2">
         <v>-2.85</v>
       </c>
-      <c r="F51" s="3">
-        <v>43.754</v>
+      <c r="F51" s="2">
+        <v>43.753999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.25"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="3">
-        <v>-944.0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-830.0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-650.0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-633.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="2">
+        <v>-944</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-830</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-650</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="3">
-        <v>938.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>938</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="3">
-        <v>394.0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>709.0</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>394</v>
+      </c>
+      <c r="D17" s="2">
+        <v>709</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="3">
-        <v>845.0</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>845</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5" ht="12.75">
+      <c r="A34" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5" ht="12.75">
+      <c r="A35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" ht="12.75">
+      <c r="A36" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" ht="12.75">
+      <c r="A37" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D37" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75">
+      <c r="A38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5" ht="12.75">
+      <c r="A39" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="3">
-        <v>272.0</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="B39" s="2">
+        <v>272</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.75">
+      <c r="A40" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5" ht="12.75">
+      <c r="A41" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5" ht="12.75">
+      <c r="A42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5" ht="12.75">
+      <c r="A43" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:5" ht="12.75">
+      <c r="A44" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5" ht="12.75">
+      <c r="A45" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5" ht="12.75">
+      <c r="A46" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5" ht="12.75">
+      <c r="A47" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:5" ht="12.75">
+      <c r="A48" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5" ht="12.75">
+      <c r="A49" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B49" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D49" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5" ht="12.75">
+      <c r="A50" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5" ht="12.75">
+      <c r="A51" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5" ht="12.75">
+      <c r="A52" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:5" ht="12.75">
+      <c r="A53" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:5" ht="12.75">
+      <c r="A54" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5" ht="12.75">
+      <c r="A55" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:5" ht="12.75">
+      <c r="A56" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:5" ht="12.75">
+      <c r="A57" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:5" ht="12.75">
+      <c r="A58" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:5" ht="12.75">
+      <c r="A59" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:5" ht="12.75">
+      <c r="A60" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:5" ht="12.75">
+      <c r="A61" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:5" ht="12.75">
+      <c r="A62" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5" ht="12.75">
+      <c r="A63" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5" ht="12.75">
+      <c r="A64" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:5" ht="12.75">
+      <c r="A65" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:5" ht="12.75">
+      <c r="A66" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:5" ht="12.75">
+      <c r="A67" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:5" ht="12.75">
+      <c r="A68" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4882,1005 +4903,1012 @@
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.0"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="7">
-        <v>491.0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>268.0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>308.0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>357.0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>346.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="5">
+        <v>491</v>
+      </c>
+      <c r="C18" s="5">
+        <v>268</v>
+      </c>
+      <c r="D18" s="5">
+        <v>308</v>
+      </c>
+      <c r="E18" s="5">
+        <v>357</v>
+      </c>
+      <c r="F18" s="5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="7">
-        <v>-188.0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>-628.0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>-337.0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>334.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="5">
+        <v>-188</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-628</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-337</v>
+      </c>
+      <c r="F21" s="5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="7">
-        <v>280.0</v>
-      </c>
-      <c r="C22" s="7">
-        <v>-188.0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-628.0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>-337.0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>334.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="5">
+        <v>280</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-188</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-628</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-337</v>
+      </c>
+      <c r="F22" s="5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="7">
-        <v>-280.0</v>
-      </c>
-      <c r="C23" s="7">
-        <v>188.0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>628.0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>337.0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>-334.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="5">
+        <v>-280</v>
+      </c>
+      <c r="C23" s="5">
+        <v>188</v>
+      </c>
+      <c r="D23" s="5">
+        <v>628</v>
+      </c>
+      <c r="E23" s="5">
+        <v>337</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D24" s="7">
-        <v>556.0</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="5">
+        <v>556</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>10.23</v>
       </c>
-      <c r="C32" s="7">
-        <v>8.13</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="5">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D32" s="5">
         <v>5.84</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>4.59</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>5.69</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="7">
-        <v>10.13</v>
-      </c>
-      <c r="C33" s="7">
-        <v>8.04</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="B33" s="5">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D33" s="5">
         <v>5.8</v>
       </c>
-      <c r="E33" s="7">
-        <v>4.56</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="E33" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F33" s="5">
         <v>5.61</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:6" ht="12.75">
+      <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:6" ht="12.75">
+      <c r="A40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:6" ht="12.75">
+      <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="7">
-        <v>491.0</v>
-      </c>
-      <c r="C41" s="7">
-        <v>268.0</v>
-      </c>
-      <c r="D41" s="7">
-        <v>308.0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>357.0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>346.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="B41" s="5">
+        <v>491</v>
+      </c>
+      <c r="C41" s="5">
+        <v>268</v>
+      </c>
+      <c r="D41" s="5">
+        <v>308</v>
+      </c>
+      <c r="E41" s="5">
+        <v>357</v>
+      </c>
+      <c r="F41" s="5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75">
+      <c r="A42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:6" ht="12.75">
+      <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:6" ht="12.75">
+      <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:6" ht="12.75">
+      <c r="A45" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:6" ht="12.75">
+      <c r="A46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:6" ht="12.75">
+      <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:6" ht="12.75">
+      <c r="A48" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:6" ht="12.75">
+      <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:6" ht="12.75">
+      <c r="A50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:6" ht="12.75">
+      <c r="A51" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B51" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75">
+      <c r="A52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C52" s="7">
-        <v>340.136</v>
-      </c>
-      <c r="D52" s="7">
-        <v>-373.771</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="C52" s="5">
+        <v>340.13600000000002</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-373.77100000000002</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5888,1317 +5916,1321 @@
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="64.63"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B13" s="7">
-        <v>-879.0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>-771.0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>-754.0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>-550.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="5">
+        <v>-879</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-771</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-754</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="7">
-        <v>966.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="7">
-        <v>472.0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>314.0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>208.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="C23" s="5">
+        <v>472</v>
+      </c>
+      <c r="D23" s="5">
+        <v>314</v>
+      </c>
+      <c r="E23" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5" ht="12.75">
+      <c r="A34" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5" ht="12.75">
+      <c r="A35" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" ht="12.75">
+      <c r="A36" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" ht="12.75">
+      <c r="A37" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:5" ht="12.75">
+      <c r="A38" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5" ht="12.75">
+      <c r="A39" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5" ht="12.75">
+      <c r="A40" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5" ht="12.75">
+      <c r="A41" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5" ht="12.75">
+      <c r="A42" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E42" s="7">
-        <v>808.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="E42" s="5">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75">
+      <c r="A43" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E43" s="7">
-        <v>808.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="E43" s="5">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75">
+      <c r="A44" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="7">
-        <v>397.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="E44" s="5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75">
+      <c r="A45" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5" ht="12.75">
+      <c r="A46" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5" ht="12.75">
+      <c r="A47" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:5" ht="12.75">
+      <c r="A48" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5" ht="12.75">
+      <c r="A49" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5" ht="12.75">
+      <c r="A50" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5" ht="12.75">
+      <c r="A51" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5" ht="12.75">
+      <c r="A52" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:5" ht="12.75">
+      <c r="A53" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:5" ht="12.75">
+      <c r="A54" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5" ht="12.75">
+      <c r="A55" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:5" ht="12.75">
+      <c r="A56" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:5" ht="12.75">
+      <c r="A57" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="7">
-        <v>485.0</v>
-      </c>
-      <c r="D57" s="7">
-        <v>514.0</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="C57" s="5">
+        <v>485</v>
+      </c>
+      <c r="D57" s="5">
+        <v>514</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:5" ht="12.75">
+      <c r="A58" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="7">
-        <v>911.0</v>
-      </c>
-      <c r="D58" s="7">
-        <v>599.0</v>
-      </c>
-      <c r="E58" s="7">
-        <v>535.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="C58" s="5">
+        <v>911</v>
+      </c>
+      <c r="D58" s="5">
+        <v>599</v>
+      </c>
+      <c r="E58" s="5">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12.75">
+      <c r="A59" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:5" ht="12.75">
+      <c r="A60" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:5" ht="12.75">
+      <c r="A61" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:5" ht="12.75">
+      <c r="A62" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5" ht="12.75">
+      <c r="A63" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="5" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5" ht="12.75">
+      <c r="A64" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B64" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="C64" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="12.75">
+      <c r="A65" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:5" ht="12.75">
+      <c r="A66" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:5" ht="12.75">
+      <c r="A67" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="5" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:5" ht="12.75">
+      <c r="A68" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="5" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:5" ht="12.75">
+      <c r="A69" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5" ht="12.75">
+      <c r="A70" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="5" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:5" ht="12.75">
+      <c r="A71" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="5" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:5" ht="12.75">
+      <c r="A72" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:5" ht="12.75">
+      <c r="A73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:5" ht="12.75">
+      <c r="A74" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:5" ht="12.75">
+      <c r="A75" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:5" ht="12.75">
+      <c r="A76" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:5" ht="12.75">
+      <c r="A77" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="5" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:5" ht="12.75">
+      <c r="A78" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="5" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:5" ht="12.75">
+      <c r="A79" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7206,6 +7238,6 @@
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Análisis financiero de Microsoft y Alphabet/Datos originales de Mircrosfot y Alphabet (extraidos de Yahoo! finanzas el 03 - 02 - 2026).xlsx
+++ b/Análisis financiero de Microsoft y Alphabet/Datos originales de Mircrosfot y Alphabet (extraidos de Yahoo! finanzas el 03 - 02 - 2026).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estado de Resultados de MSFT" sheetId="1" r:id="rId1"/>
@@ -2804,7 +2804,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3779,7 +3779,9 @@
   </sheetPr>
   <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3794,7 +3796,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>182</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>187</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="12.75">
       <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>197</v>
       </c>
@@ -3913,7 +3915,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>202</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
@@ -3947,7 +3949,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="12.75">
       <c r="A13" s="2" t="s">
         <v>212</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>218</v>
       </c>
@@ -3998,12 +4000,12 @@
         <v>-633</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B16" s="2">
-        <v>938</v>
+        <v>938000</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>220</v>
@@ -4015,7 +4017,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>223</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>226</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>227</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>230</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>231</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>236</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>246</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>252</v>
       </c>
@@ -4185,7 +4187,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>262</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>267</v>
       </c>
@@ -4932,7 +4934,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -5192,7 +5194,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>509</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>-334</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>106</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>107</v>
       </c>
@@ -5927,7 +5929,7 @@
   </sheetPr>
   <dimension ref="A3:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5942,7 +5944,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>590</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>595</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="12.75">
       <c r="A9" s="2" t="s">
         <v>202</v>
       </c>
@@ -6044,7 +6046,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>207</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>212</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>213</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="12.75">
       <c r="A13" s="2" t="s">
         <v>612</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>613</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>219</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>231</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>624</v>
       </c>
@@ -6197,7 +6199,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>629</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>251</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>252</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>257</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="2" t="s">
         <v>262</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>267</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>643</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>272</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>277</v>
       </c>
@@ -6350,7 +6352,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>654</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>287</v>
       </c>

--- a/Análisis financiero de Microsoft y Alphabet/Datos originales de Mircrosfot y Alphabet (extraidos de Yahoo! finanzas el 03 - 02 - 2026).xlsx
+++ b/Análisis financiero de Microsoft y Alphabet/Datos originales de Mircrosfot y Alphabet (extraidos de Yahoo! finanzas el 03 - 02 - 2026).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="719" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estado de Resultados de MSFT" sheetId="1" r:id="rId1"/>
@@ -2787,7 +2787,8 @@
   <dimension ref="A3:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2804,7 +2805,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3044,27 +3045,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="2">
-        <v>539</v>
+        <v>539000</v>
       </c>
       <c r="C16" s="2">
-        <v>262</v>
+        <v>262000</v>
       </c>
       <c r="D16" s="2">
-        <v>222</v>
+        <v>222000</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -3118,13 +3119,13 @@
         <v>79</v>
       </c>
       <c r="E19" s="2">
-        <v>-238</v>
+        <v>-238000</v>
       </c>
       <c r="F19" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -3132,59 +3133,59 @@
         <v>81</v>
       </c>
       <c r="C20" s="2">
-        <v>505</v>
+        <v>505000</v>
       </c>
       <c r="D20" s="2">
-        <v>-343</v>
+        <v>-343000</v>
       </c>
       <c r="E20" s="2">
-        <v>15</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="2">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="2">
-        <v>-142</v>
+        <v>-142000</v>
       </c>
       <c r="C21" s="2">
-        <v>-943</v>
+        <v>-943000</v>
       </c>
       <c r="D21" s="2">
-        <v>-206</v>
+        <v>-206000</v>
       </c>
       <c r="E21" s="2">
-        <v>-30</v>
+        <v>-30000</v>
       </c>
       <c r="F21" s="2">
-        <v>-101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
+        <v>-101000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="2">
-        <v>142</v>
+        <v>142000</v>
       </c>
       <c r="C22" s="2">
-        <v>943</v>
+        <v>943000</v>
       </c>
       <c r="D22" s="2">
-        <v>206</v>
+        <v>206000</v>
       </c>
       <c r="E22" s="2">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="F22" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3198,13 +3199,13 @@
         <v>87</v>
       </c>
       <c r="E23" s="2">
-        <v>-223</v>
+        <v>-223000</v>
       </c>
       <c r="F23" s="2">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75">
+        <v>-32000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
@@ -3549,19 +3550,19 @@
         <v>139</v>
       </c>
       <c r="B41" s="2">
-        <v>539</v>
+        <v>539000</v>
       </c>
       <c r="C41" s="2">
-        <v>262</v>
+        <v>262000</v>
       </c>
       <c r="D41" s="2">
-        <v>222</v>
+        <v>222000</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F41" s="2">
-        <v>31</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75">
@@ -3672,16 +3673,16 @@
         <v>161</v>
       </c>
       <c r="C47" s="2">
-        <v>-438</v>
+        <v>-438000</v>
       </c>
       <c r="D47" s="2">
-        <v>-549</v>
+        <v>-549000</v>
       </c>
       <c r="E47" s="2">
-        <v>-15</v>
+        <v>-15000</v>
       </c>
       <c r="F47" s="2">
-        <v>334</v>
+        <v>334000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75">
@@ -3692,16 +3693,16 @@
         <v>161</v>
       </c>
       <c r="C48" s="2">
-        <v>-438</v>
+        <v>-438000</v>
       </c>
       <c r="D48" s="2">
-        <v>-549</v>
+        <v>-549000</v>
       </c>
       <c r="E48" s="2">
-        <v>-15</v>
+        <v>-15000</v>
       </c>
       <c r="F48" s="2">
-        <v>334</v>
+        <v>334000</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75">
@@ -3779,9 +3780,7 @@
   </sheetPr>
   <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3796,7 +3795,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>182</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>187</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>197</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>202</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>212</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3983,24 +3982,24 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B15" s="2">
-        <v>-944</v>
+        <v>-944000</v>
       </c>
       <c r="C15" s="2">
-        <v>-830</v>
+        <v>-830000</v>
       </c>
       <c r="D15" s="2">
-        <v>-650</v>
+        <v>-650000</v>
       </c>
       <c r="E15" s="2">
-        <v>-633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75">
+        <v>-633000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>219</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>223</v>
       </c>
@@ -4025,16 +4024,16 @@
         <v>224</v>
       </c>
       <c r="C17" s="2">
-        <v>394</v>
+        <v>394000</v>
       </c>
       <c r="D17" s="2">
-        <v>709</v>
+        <v>709000</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>226</v>
       </c>
@@ -4042,16 +4041,16 @@
         <v>224</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="D18" s="2">
-        <v>23</v>
+        <v>23000</v>
       </c>
       <c r="E18" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>227</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="2">
-        <v>845</v>
+        <v>845000</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>228</v>
@@ -4068,24 +4067,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B20" s="2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D20" s="2">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>231</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>236</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>241</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>246</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>251</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>252</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>257</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>262</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>267</v>
       </c>
@@ -4916,9 +4915,7 @@
   </sheetPr>
   <dimension ref="A3:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4934,7 +4931,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4974,7 +4971,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -5014,7 +5011,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -5034,7 +5031,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -5054,7 +5051,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -5074,7 +5071,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -5114,7 +5111,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -5154,7 +5151,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -5174,7 +5171,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -5214,27 +5211,27 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="5">
-        <v>491</v>
+        <v>491000</v>
       </c>
       <c r="C18" s="5">
-        <v>268</v>
+        <v>268000</v>
       </c>
       <c r="D18" s="5">
-        <v>308</v>
+        <v>308000</v>
       </c>
       <c r="E18" s="5">
-        <v>357</v>
+        <v>357000</v>
       </c>
       <c r="F18" s="5">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75">
+        <v>346000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>509</v>
       </c>
@@ -5282,59 +5279,59 @@
         <v>224</v>
       </c>
       <c r="C21" s="5">
-        <v>-188</v>
+        <v>-188000</v>
       </c>
       <c r="D21" s="5">
-        <v>-628</v>
+        <v>-628000</v>
       </c>
       <c r="E21" s="5">
-        <v>-337</v>
+        <v>-337000</v>
       </c>
       <c r="F21" s="5">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
+        <v>334000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="5">
-        <v>280</v>
+        <v>280000</v>
       </c>
       <c r="C22" s="5">
-        <v>-188</v>
+        <v>-188000</v>
       </c>
       <c r="D22" s="5">
-        <v>-628</v>
+        <v>-628000</v>
       </c>
       <c r="E22" s="5">
-        <v>-337</v>
+        <v>-337000</v>
       </c>
       <c r="F22" s="5">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75">
+        <v>334000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="5">
-        <v>-280</v>
+        <v>-280000</v>
       </c>
       <c r="C23" s="5">
-        <v>188</v>
+        <v>188000</v>
       </c>
       <c r="D23" s="5">
-        <v>628</v>
+        <v>628000</v>
       </c>
       <c r="E23" s="5">
-        <v>337</v>
+        <v>337000</v>
       </c>
       <c r="F23" s="5">
-        <v>-334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75">
+        <v>-334000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>511</v>
       </c>
       <c r="D24" s="5">
-        <v>556</v>
+        <v>556000</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>512</v>
@@ -5354,7 +5351,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -5374,7 +5371,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
@@ -5394,7 +5391,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>100</v>
       </c>
@@ -5414,7 +5411,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>106</v>
       </c>
@@ -5434,7 +5431,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>107</v>
       </c>
@@ -5679,19 +5676,19 @@
         <v>138</v>
       </c>
       <c r="B41" s="5">
-        <v>491</v>
+        <v>491000</v>
       </c>
       <c r="C41" s="5">
-        <v>268</v>
+        <v>268000</v>
       </c>
       <c r="D41" s="5">
-        <v>308</v>
+        <v>308000</v>
       </c>
       <c r="E41" s="5">
-        <v>357</v>
+        <v>357000</v>
       </c>
       <c r="F41" s="5">
-        <v>346</v>
+        <v>346000</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75">
@@ -5929,7 +5926,9 @@
   </sheetPr>
   <dimension ref="A3:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5944,7 +5943,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>590</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>595</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>202</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>207</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>212</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>213</v>
       </c>
@@ -6097,24 +6096,24 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>612</v>
       </c>
       <c r="B13" s="5">
-        <v>-879</v>
+        <v>-879000</v>
       </c>
       <c r="C13" s="5">
-        <v>-771</v>
+        <v>-771000</v>
       </c>
       <c r="D13" s="5">
-        <v>-754</v>
+        <v>-754000</v>
       </c>
       <c r="E13" s="5">
-        <v>-550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75">
+        <v>-550000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>613</v>
       </c>
@@ -6128,10 +6127,10 @@
         <v>224</v>
       </c>
       <c r="E14" s="5">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>219</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>231</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>624</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>629</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>251</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>252</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>257</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>262</v>
       </c>
@@ -6275,16 +6274,16 @@
         <v>224</v>
       </c>
       <c r="C23" s="5">
-        <v>472</v>
+        <v>472000</v>
       </c>
       <c r="D23" s="5">
-        <v>314</v>
+        <v>314000</v>
       </c>
       <c r="E23" s="5">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>267</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>643</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>272</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>277</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>654</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>287</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>700</v>
       </c>
       <c r="E42" s="5">
-        <v>808</v>
+        <v>808000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75">
@@ -6621,7 +6620,7 @@
         <v>700</v>
       </c>
       <c r="E43" s="5">
-        <v>808</v>
+        <v>808000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75">
@@ -6638,7 +6637,7 @@
         <v>224</v>
       </c>
       <c r="E44" s="5">
-        <v>397</v>
+        <v>397000</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75">
@@ -6853,10 +6852,10 @@
         <v>224</v>
       </c>
       <c r="C57" s="5">
-        <v>485</v>
+        <v>485000</v>
       </c>
       <c r="D57" s="5">
-        <v>514</v>
+        <v>514000</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>753</v>
@@ -6870,13 +6869,13 @@
         <v>224</v>
       </c>
       <c r="C58" s="5">
-        <v>911</v>
+        <v>911000</v>
       </c>
       <c r="D58" s="5">
-        <v>599</v>
+        <v>599000</v>
       </c>
       <c r="E58" s="5">
-        <v>535</v>
+        <v>535000</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75">
